--- a/RUDN/Importance/Varible_reg_in_RUS.xlsx
+++ b/RUDN/Importance/Varible_reg_in_RUS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Series Name</t>
   </si>
@@ -31,19 +31,88 @@
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
     <t>Children out of school, primary, male</t>
@@ -52,100 +121,10 @@
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
 </sst>
 </file>
@@ -503,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5357142686843872</v>
+        <v>0.3295454680919647</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1883116811513901</v>
+        <v>0.1647727340459824</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1022727265954018</v>
+        <v>0.09090909361839294</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.05681818351149559</v>
+        <v>0.07386363297700882</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.009740259498357773</v>
+        <v>0.0284090917557478</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.008116883225739002</v>
+        <v>0.02272727340459824</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.008116883225739002</v>
+        <v>0.02272727340459824</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.006493506487458944</v>
+        <v>0.02272727340459824</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.006493506487458944</v>
+        <v>0.02272727340459824</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.006493506487458944</v>
+        <v>0.01704545505344868</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.004870129749178886</v>
+        <v>0.01704545505344868</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +589,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.003246753243729472</v>
+        <v>0.01704545505344868</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.003246753243729472</v>
+        <v>0.01136363670229912</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.003246753243729472</v>
+        <v>0.01136363670229912</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +613,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.003246753243729472</v>
+        <v>0.01136363670229912</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +621,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.003246753243729472</v>
+        <v>0.01136363670229912</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.003246753243729472</v>
+        <v>0.01136363670229912</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +637,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.003246753243729472</v>
+        <v>0.01136363670229912</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.003246753243729472</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +653,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.003246753243729472</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +669,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +677,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +685,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +693,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +725,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +733,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +741,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +749,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +757,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +773,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,63 +781,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.001623376621864736</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.001623376621864736</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.001623376621864736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0.001623376621864736</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0.001623376621864736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0.001623376621864736</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0.001623376621864736</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0.001623376621864736</v>
+        <v>0.005681818351149559</v>
       </c>
     </row>
   </sheetData>
